--- a/biology/Médecine/MYCN/MYCN.xlsx
+++ b/biology/Médecine/MYCN/MYCN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">MYCN est un facteur de transcription. Son gène est MYCN, situé sur le chromosome 2 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'AURKA se lie avec une ubiquitine ligase permettant une ubiquitinisation de MYCN et sa stabilisation[5]. MYCN augmente l'expression de plusieurs gènes impliquées dans la formation des ribosomes[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AURKA se lie avec une ubiquitine ligase permettant une ubiquitinisation de MYCN et sa stabilisation. MYCN augmente l'expression de plusieurs gènes impliquées dans la formation des ribosomes.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son expression est fortement augmenté dans les cellules du rétinoblastome[7], mais également dans d'autres tumeurs, comme le cancer bronchique à petites cellules[8]. Il induit la synthèse de plusieurs types de micro-ARNs dans les neuroblastomes[9].
-Cibler le MYCN serait une voie potentielle de traitement de tels cancers. Plusieurs méthodes sont en cours d'exploration, consistant à inhiber l'activité de AURKA[10] ou celle des inhibiteurs de bromodomaines[11] ou encore celle de CDK7[12].
-Une mutation du MYCN serait responsable du syndrome de Feingold, syndrome polymalformatif du tube digestif, du cerveau et du cœur[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son expression est fortement augmenté dans les cellules du rétinoblastome, mais également dans d'autres tumeurs, comme le cancer bronchique à petites cellules. Il induit la synthèse de plusieurs types de micro-ARNs dans les neuroblastomes.
+Cibler le MYCN serait une voie potentielle de traitement de tels cancers. Plusieurs méthodes sont en cours d'exploration, consistant à inhiber l'activité de AURKA ou celle des inhibiteurs de bromodomaines ou encore celle de CDK7.
+Une mutation du MYCN serait responsable du syndrome de Feingold, syndrome polymalformatif du tube digestif, du cerveau et du cœur.
 </t>
         </is>
       </c>
